--- a/assets/Year2023text/combined/2023_student_1.xlsx
+++ b/assets/Year2023text/combined/2023_student_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Legos  magnetiles â makes houses out of the magnetiles for the animals and constructs homes for his stuffies (so once he gets Quake probably will make a home in the mountains for him) RC tanks that shoot each other   Do you like any sports or activities? </t>
+          <t xml:space="preserve">Try to salvage and/or utilize the "main" components (lens, screen, buttons, lights) 3. </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,18 +467,18 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.5969771146774292</v>
+        <v>0.6710942387580872</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ready made, play with it right out of the box  Learning Goals  dexterity with using the remote facts about dino how four legged animals move  Initial Ideas: Robot dino with a joystick and buttons or Microbit? </t>
+          <t xml:space="preserve">Ideas of what to recreate ranged from a charger, to getting the screen to turn on, to making an aesthetic art piece, to a telescope from the lens  Disassembling Phase: I used a screwdriver to easily take apart the camera There were a series of different boards inside along with the obvious of lenses, lights, batteries, the screen I am unsure what the orange strips were, my one thought is that they function as the "wires" to send signals to the various boards Once I saw the hole that the main lens left when it was removed I then had the thought "I could make this a speaker!"  Revision Phase: I make Bluetooth speakers with my students, so I knew I had the supplies to make this happen I used a Dremel to remove some plastic for a 9V battery to fit inside the case, as well as had to Dremel down the switch to make it fit in the original button hole Once I soldered the switch and  glued in the speaker, the last (most challenging) part was to reassemble the case and screw it all back together  Reflection I wish I paid closer attention when disassembling the case because the most challenging part was reassembling it. </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -487,18 +487,18 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.6440877914428711</v>
+        <v>0.4500018060207367</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tilt for movement and a and b buttons for other actions Ask Megan about remote she used Motor to move the legs, maybe servo to move neck/tail Speaker to recite dino facts if time permits, have facts correspond to various parts of the body 3D print dino in pieces so it can move Dinosaur build-kit (not a good idea because child still struggles with assembling objects)  Prep Ideas: Ask him to sketch a design â walk around makerspace Maybe ask him to act out how he imagines the dino? </t>
+          <t xml:space="preserve">It took me a while to realize I needed to utilize the metal sections I had taken out in order for the screws to hold. </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -507,18 +507,18 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.5320369601249695</v>
+        <v>0.5572580099105835</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reflections from the Co-design interview: (Link to detailed reflection report:Â https://docs.google.com/document/d/1-slNq8pzJ_TU8A9ZQyH-3aUrTFY3s7NjmmamDuzLA_4/edit#)  The importance of language use and communication: Our interviewee is a 9-year-old girl who can communicate effectively. </t>
+          <t xml:space="preserve">As I think about the word "repair" I used to associate it with fixing a current object in order to restore its original function. </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -527,58 +527,58 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6244330406188965</v>
+        <v>0.5328930020332336</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">So we started to brainstorm some ideas that are possible to fold. </t>
+          <t xml:space="preserve">However, after reading Rethinking Repair, I began to understand that repair is beyond just fixing something, but rather the beauty of repair is that it can become something totally new. </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.5843355059623718</v>
+        <v>0.7605043649673462</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">The toy should not be too big, portable, and easy to disassemble. </t>
+          <t xml:space="preserve">Originally, I was so focused on "needing" to use the electronics of the camera that I felt stuck, but once I allowed myself to be okay with not using those components I really enjoyed creating something entirely new within its case. </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.559444785118103</v>
+        <v>0.3871769607067108</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">These decisions align with the learning goals as the objectives focus on projecting the imagination with embodied movement, promoting the learning process of the Newtonian world with her drawing and manifesting her intuition with the sense of control. </t>
+          <t xml:space="preserve">FIRST IDEA Materials: Crocs: Primarily composed of PEVA and fabric Jeans: Jeans, button, ziper, thread  This was my daughter crocs that is too tight. </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -587,18 +587,18 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.5052352547645569</v>
+        <v>0.7011575698852539</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Co-Design Interview Notes: Shima Von Joo: Age 10, 5th grade He showed the toy he currently likes to play with: a spider made of pipe cleaners Favorite animal: Dogs â Boxer or pitbull Favorite subject in school:  Social studies and technology Favorite toys are: Remote control drones, cars, boats He has played with remote controlled cars that are on a magnetic track and goes in a loop. </t>
+          <t xml:space="preserve">I planned to do a pencil case as you can see on the sketch. </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -607,38 +607,38 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.7071622610092163</v>
+        <v>0.7794008255004883</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">The toy should not be too big, portable, and easy to disassemble. </t>
+          <t xml:space="preserve">SECOND IDEA  Materials: 	â¢	Crocs: Primarily composed of polyethylene vinyl acetate (PEVA) and fabric 	â¢	Part of a Lamp (I found it in my building garbage like this): Metal inside and plastic outside 	â¢	Crochet thread  Sketch: As the crocs is made of plastic and water proof, I thought about bringing life to something that was already junk. </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.559444785118103</v>
+        <v>0.6680177450180054</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">These decisions align with the learning goals as the objectives focus on projecting the imagination with embodied movement, promoting the learning process of the Newtonian world with her drawing and manifesting her intuition with the sense of control. </t>
+          <t xml:space="preserve">When I finished sewing, I planted the bean in cotton and another one on land to see which one would grow. </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -647,27 +647,27 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.5052352547645569</v>
+        <v>0.6761738061904907</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">So we started to brainstorm some ideas that are possible to fold. </t>
+          <t xml:space="preserve">In today's fast-paced world, we often discard objects that are broken or no longer useful, without giving much thought to repairing or repurposing them. </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.5843355059623718</v>
+        <v>0.8042792677879333</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Legos  magnetiles â makes houses out of the magnetiles for the animals and constructs homes for his stuffies (so once he gets Quake probably will make a home in the mountains for him) RC tanks that shoot each other   Do you like any sports or activities? </t>
+          <t xml:space="preserve">The dissembling process itself is a test for perseverance and creativity. </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -687,18 +687,18 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.5969771146774292</v>
+        <v>0.5058594942092896</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ready made, play with it right out of the box  Learning Goals  dexterity with using the remote facts about dino how four legged animals move  Initial Ideas: Robot dino with a joystick and buttons or Microbit? </t>
+          <t xml:space="preserve">I observed more closely and had deeper understanding of every pieces when brainstorming for new design I failed forward. </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -707,18 +707,18 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.6440877914428711</v>
+        <v>0.5080288648605347</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>04</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tilt for movement and a and b buttons for other actions Ask Megan about remote she used Motor to move the legs, maybe servo to move neck/tail Speaker to recite dino facts if time permits, have facts correspond to various parts of the body 3D print dino in pieces so it can move Dinosaur build-kit (not a good idea because child still struggles with assembling objects)  Prep Ideas: Ask him to sketch a design â walk around makerspace Maybe ask him to act out how he imagines the dino? </t>
+          <t xml:space="preserve">The article âRethinking Repairâ made me think about the concept of repair as I worked through this assignment, and that it goes beyond fixing broken items, but also thinking about repurposing and reusing. </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -727,18 +727,18 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.5320369601249695</v>
+        <v>0.5519153475761414</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">For the Dream Toy, she wants a Melody doll made in plastic. </t>
+          <t xml:space="preserve">Materials 	â¢	Mechanical pencil and pen 	â¢	Bottle cap 	â¢	Buttons 	â¢	Hand sanitizer bottle  Parts  	â¢	additional items added during process: wooden base, cloth to connect springs and base  Tools 	â¢	Scissors 	â¢	Super glue 	â¢	Needle and thread   Design sketch/ Bobble Toy  Process   Video  Final The springs were different sizes/heights, which caused the base to be slanted. </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -747,18 +747,18 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.7834055423736572</v>
+        <v>0.7652223706245422</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>02</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">When playing the "happy eliminating" video game, she is not able to observe, think, reflect and find the right strategy to win despite failing the same game multiple times. </t>
+          <t xml:space="preserve">Object being disassembled: Dell Docking Station  Reason classified as "trash": one cable stopped working, and the cable itself is more expensive than buying a brand new docker. </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -767,18 +767,18 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.6895987987518311</v>
+        <v>0.8746774196624756</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Co-Design Interview Notes: Shima Von Joo: Age 10, 5th grade He showed the toy he currently likes to play with: a spider made of pipe cleaners Favorite animal: Dogs â Boxer or pitbull Favorite subject in school:  Social studies and technology Favorite toys are: Remote control drones, cars, boats He has played with remote controlled cars that are on a magnetic track and goes in a loop. </t>
+          <t xml:space="preserve">Step 1: Disassembly  Printed circuit boards Screws (multiple sizes) Adhesive foot Exterior wire Casings Plastic cable holders Halogen-free fast cable Metallic structures  Not pictured: base rubber surface   Step 2: Planning  Part 1- Goal Redesign: Pencil holder with cute face To the left: initial sketch idea Materials used: salt container (label removed) base rubber surface surrounds container bottle caps (as eyes) magnets (for holding up caps) plastic cable holder (as eraser cup) flat wire (as smile) Issues with first design: The cardboard of the salt container was too thick to use magnets Difficulties sticking objects to rubber surface  Part 2- To the left: reworked sketch idea Materials added: tape (to adhere objects to container) salt pourer (as nose) twist tie (new smile) smaller plastic cable holder (for holding screws) Issue resolution: Tape/sticky putty used for sticking objects Added features: Eraser cup is now for USBs New cup for screws Nose added to face Handle added to drag holder around New issues: Handle is insecurely attached (wire/rubber material not compatible)  Step 3: Final Product Face Handle In Use  Reflection Card: Interestingly enough, the disassembly part was easier than the redesign section. </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -787,58 +787,58 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.7071622610092163</v>
+        <v>0.6188904047012329</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">For the Dream Toy, she wants a Melody doll made in plastic. </t>
+          <t>Ultimately, I was saddened that I wasn't able to incorporate more parts from the original object in my redesign, even though I did use scrap parts from around my room.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.7834055423736572</v>
+        <v>0.8628668189048767</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>08</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">When playing the "happy eliminating" video game, she is not able to observe, think, reflect and find the right strategy to win despite failing the same game multiple times. </t>
+          <t xml:space="preserve">The object I have disassembled is Dreamcast, a home video game console. </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.6895987987518311</v>
+        <v>0.7492168545722961</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>05</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reflections from the Co-design interview: (Link to detailed reflection report:Â https://docs.google.com/document/d/1-slNq8pzJ_TU8A9ZQyH-3aUrTFY3s7NjmmamDuzLA_4/edit#)  The importance of language use and communication: Our interviewee is a 9-year-old girl who can communicate effectively. </t>
+          <t xml:space="preserve">Thus, when I disassemble it myself, I do not have a complete idea of its functionality, its pros and cons. </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -847,11 +847,1131 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.6244330406188965</v>
+        <v>0.5739808082580566</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I can then generate more ideas and inspiration when I use the disassembled parts to design new objects. </t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6495230197906494</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dreamcast The object I disassembled is called Dreamcast, it is aÂ  home video game console released by SegaÂ in 1998. </t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7636777758598328</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">But I never repaired something; when necessary, I took it to a specialist, mainly if it was an electronic item. </t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7431046962738037</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In my learning process, I could not identify how the parts worked to make it functional, for example, how the web camera I disassembled makes it possible to record a person and instantaneously reproduce on a computer. </t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5907249450683594</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Whenever I had a new idea, I had to test and understand the toy balance point. </t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7022578716278076</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In my family, we have a culture to avoid breaking - I wrote more about this in my gear essay. </t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.585985004901886</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If it were broken, we would never disassemble it. </t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.5746837854385376</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I've witnessed my mom fixing bikes, computers, TV, and almost all other small electronic appliances. </t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5960608124732971</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are at least eight inputs on the mouse and they are all controlled by such a small integrated circuit! </t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.5274459719657898</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Counting the interactive components on a mouse...Â  6 clickable buttons, 1Â Scroll wheel, 1 switch, 1wireless connector of some sort, 1 light with optical sensing  Vision Board and initial design... </t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.7879239320755005</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Some of them are a bit too small for me) I had to rethink my design to use the big parts in the end. </t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.7779401540756226</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I embody the online-offline contrast by creating a tape collage to represent the offline experience, highlighting the colorful yet noisy online conversations, while I used soft and solid cotton dyed in red, green, blue and yellow, together with small objects on top that help simulate a dreamlike micro-environment to represent the intimacies of offline experience. </t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.4540850222110748</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reflection: Reading Jackson's essay makes me rethink the realtionship between objects and meaning, especially in a world that is so intellectually oriented. </t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.6243302226066589</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In my own practice of dissecting and repurposing an old object, an old flip-phone, I really try to think about its original use and meaning  for people, then how I can develop new, or even opposite meaning in it. </t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.58506178855896</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The outside had an aluminum tube protecting it and the only other visible parts were the charger ports (one USB, one Micro USB). </t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.7159257531166077</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There also was plastic on top and the bottom. </t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.5376654267311096</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I knew there would be a circuit board, battery, and wires connecting them inside. </t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.7364875674247742</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When I began taking the portable charger apart, I had trouble taking the outer plastic casing off. </t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.7131526470184326</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I used a variety of tools and eventually decided I would need to break some of the plastic. </t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.6034089326858521</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Once the top was off, it was easy to slide the rest of the aluminum casing off. </t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.6100102663040161</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A majority of pieces are plastic besides the aluminum casing. </t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.5723356604576111</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There also was a screw. </t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.5145631432533264</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The actual portable charger was made of a circuit board, connected by 2 wires to a battery, as anticipated. </t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.8692960739135742</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The circuit board had a copper wire wrapped around a spool on top, assumably for conducting energy. </t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.8034033179283142</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The aluminum and plastic parts are more decorative and protective, whereas the circuit board and battery are structural. </t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.750874400138855</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The screws and wires, including the copper, are more connecting parts. </t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.8064085841178894</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I recently have moved a lot and don't have a lot of materials, and struggled to think of how to repurpose this with what was available. </t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.7042745351791382</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">So, I simplified my goal and used the aluminum aspect, the plastic cap on the bottom, and tape to reattach the pieces. </t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.6483133435249329</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Then, I thought it could be repurposed as a dog toy (putting treat inside for my dog to get out). </t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.6630719304084778</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In the future, I will take apart electronics with more of a plan in place of how to use, and will focus on developing my understanding of how to use these pieces. </t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.5854151248931885</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This process helped me reflect on the ways we must have a plan to critically use technology. </t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.6262810230255127</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As Jackson (2014) illustrated, technology is often made (like the MacBook Pro example) in ways that make it extremely difficult to repair and not necessarily environmentally friendly. </t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.5114262104034424</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This process also made me reflect on the importance of patience. </t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.6942535638809204</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I ended up creating something that is not useful, and so it does not constitute a worthwhile repair or sufficiently salvaging the materials. </t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.8327643275260925</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Repair is a big part of my family traditions as my father and grandfather both are mechanics, and so I was raised in a tradition of repairing whatever we could, and although I have more experience with repairing non-electronics I am looking forward to gaining practice in this realm. </t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.7443138957023621</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The experience of grabbing a microwave from the street's trash, dissecting it, and repurposing the fan was counter-cultural in different ways. </t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.7199535965919495</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I was used to thinking about repairing technology as a man's task: the person that always fixed artifacts in my home was a man. </t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.5292344689369202</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Second, repairing instead of using new materials was a way to care for the environment and our technologies. </t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.4558084309101105</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jackson (2014)  invites us to build a strong relationship with objects and take care of them and proposes an ethics of mutual care and responsibility, called repair-centered ethics paradigm. </t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.521369993686676</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The story of a useless microwave found in the street's trash  DISASSEMBLING PHASE: COMPONENTS  Quick notes in the lab of akio's explanation  TOOLS  CORE PART Mostly metal, and plastic  Beeper Motor Magnetron Fuse Capacitor Transformer  Fan and Structure attaching  it  external structure  Base and wall: metal Door: Plastic  Walls with ventilation  Base with ventilation  Door  Buttons  attaching parts Mostly metal, and plastic  Spring   Screws Metal attachments Gears  Video of the process  repurpose and design phase  Once I disassembled the different parts, I observed each element and found the fan an interesting element to start playing and trying things. </t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.6187592744827271</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Second Idea  Try out the fan, as I forgot to plug in the microwave to test if it was working. </t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.6111236214637756</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I decided to put a switch to pick if I wanted to turn it on or off. </t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.6715211868286133</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Megan helped me to use a multimeter to measure the voltage. </t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.4856259226799011</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fourth idea  Stick metallic and colorful stars in the helix to see a nice effect. </t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.4953159093856812</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Final PRODUCT  electric Fan with switch and decorations to refresh ourselves during summer and put in a desk or nightstand. </t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.5728968381881714</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I attached the fan to a recycled piece of wood, as I was looking for a non-conductive material. </t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.7789108157157898</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I added a wood support to put the fan in a table. </t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.695391058921814</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It was intriguing to see how the notion of "repairing" was articulated as a "timely phenomenon bridging past and future", namely "aftermath", which inherits the layered world and entails continuity of "order, value, and meaning" (Jackson, 2014). </t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.4397342503070831</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In my project, the phone slider and the movable monitor stand were manifested as embodied instructional material of the number system and provided the embodied structure of 2 players game, respectively. </t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0.8203732967376709</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I think the original purpose of the embodied design affordance was sustained and transformed throughout the ârepairâ process and the project entails a portion of the essence of the aftermathâcontinuity (of order and value) and resilience. </t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.6586543917655945</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Old Slider Phone Employing slider to represent and embody base 2 &amp; base 3 number system to encourage children to concretize number system with sensorimotor movement. </t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.5345385074615479</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Slider (Coil, wire, plastic)  Attaching knobs to two slider coils  Employing affordance of the phone slider to embody base 2 and 3 number system  Learning binary (base 2) number system  base 2 &amp; base 3 number system  Challenge: I initially had not intuitive moment learning base 2 (binary) system and it was easier for me to learn base 3 than base 2 given that base 3 is similar to base 10 (decimal) system which we use universally. </t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0.6023328900337219</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Throughout this process, I realized employing other representation than number would be the easier way to learn the logic of the number system. </t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0.4822688698768616</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monitor Stand (screw, spring, rubber, magnet)  Monitor Screen (film, circuit, power supply, sound/color generator, buttons)  Serendipitously I figured out that the surface of the stand  is composed of magnet! </t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.5435785055160522</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">slider phone)  Gluing colored-buttons on the magnet to attach it on the monitor stand. </t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.8100442886352539</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This way, we can express base 2 or 3 number system using different embodied representation! </t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.5925748348236084</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>01</t>
         </is>
       </c>
     </row>
